--- a/Ganadería/17.36.xlsx
+++ b/Ganadería/17.36.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA81B142-6940-4D0F-9CE2-9782AEB661A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E519054-DAF0-4FB0-AC0F-0A929021B1D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="22" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="23" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>Valparaíso</t>
   </si>
@@ -183,6 +184,69 @@
   </si>
   <si>
     <t>Costos de producción por litro de leche promedio ($/litro)</t>
+  </si>
+  <si>
+    <t>Definición</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>Paula Rojas</t>
+  </si>
+  <si>
+    <t>Id_auxiliar</t>
+  </si>
+  <si>
+    <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Territorio</t>
+  </si>
+  <si>
+    <t>Temporalidad</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ISO país</t>
+  </si>
+  <si>
+    <t>Nivel administrativo</t>
+  </si>
+  <si>
+    <t>Descripción larga</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Costo de producción</t>
+  </si>
+  <si>
+    <t>Costos de producción por litro de leche promedio, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>$/Litro</t>
+  </si>
+  <si>
+    <t>costos, producción, ganado, bovino, ganadería, leche</t>
   </si>
 </sst>
 </file>
@@ -218,13 +282,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -238,9 +307,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CBD73FF3-D8B1-4268-B5FE-054831861EE4}" name="Tabla14" displayName="Tabla14" ref="A1:H25" totalsRowShown="0">
-  <autoFilter ref="A1:H25" xr:uid="{953C45BF-4AB2-4EF0-BB3E-A5D310C3135D}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CBD73FF3-D8B1-4268-B5FE-054831861EE4}" name="Costo_producción_leche" displayName="Costo_producción_leche" ref="A1:I25" totalsRowShown="0">
+  <autoFilter ref="A1:I25" xr:uid="{953C45BF-4AB2-4EF0-BB3E-A5D310C3135D}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6F781FFA-F334-4E1F-B9DF-047186461843}" name="Región"/>
     <tableColumn id="3" xr3:uid="{5F771B7E-FAA2-44AB-AD9F-A3BFC3468C94}" name="Provincia"/>
     <tableColumn id="4" xr3:uid="{333CAC85-CDE2-410E-A8ED-B17CD5C521E0}" name="Año"/>
@@ -249,6 +318,29 @@
     <tableColumn id="6" xr3:uid="{208B826E-107B-4565-82F7-49163F0FA4FE}" name="Categoría"/>
     <tableColumn id="7" xr3:uid="{9ADC9906-7ED8-42BA-9268-59E23264B336}" name="Id_producto"/>
     <tableColumn id="8" xr3:uid="{7E1454AD-6657-4B06-BBA7-5E517D9388E3}" name="Producto"/>
+    <tableColumn id="9" xr3:uid="{A8C73A46-0DFB-49DF-A80D-52AC378D8B51}" name="Definición"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A041216A-1121-4334-A46C-713761147767}" name="Aux_Costo_producción_leche" displayName="Aux_Costo_producción_leche" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{499C681B-EBA2-4062-9ECF-6FA68A6434E1}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{B5A13D20-0885-47EC-A8F9-F7211770E501}" name="Id_auxiliar"/>
+    <tableColumn id="2" xr3:uid="{86AF7427-2CDA-409A-978E-9633C3DC9CA7}" name="Parámetro"/>
+    <tableColumn id="3" xr3:uid="{BC28B63A-FA13-495B-B76F-F0B55982D37A}" name="Detalle"/>
+    <tableColumn id="4" xr3:uid="{79A80B84-0FA5-4C04-814B-1E298770CD28}" name="Territorio"/>
+    <tableColumn id="5" xr3:uid="{4DE5C005-88CB-4493-A26F-DDEB8F558DBC}" name="Temporalidad"/>
+    <tableColumn id="6" xr3:uid="{0212EC25-23A1-4A56-9107-4BE7A0AEED18}" name="Título"/>
+    <tableColumn id="7" xr3:uid="{5858254F-03EF-4AB2-A985-8EC4DE3C84C4}" name="Tags"/>
+    <tableColumn id="8" xr3:uid="{5FCBABDC-BE3D-4272-9345-FE984EAE070D}" name="ISO país"/>
+    <tableColumn id="9" xr3:uid="{4C378F6A-C060-444C-965A-886D88A601C1}" name="Nivel administrativo"/>
+    <tableColumn id="10" xr3:uid="{276FCFCC-B686-4129-B977-A4045E33F227}" name="Descripción larga"/>
+    <tableColumn id="11" xr3:uid="{19A8875B-CE87-46DF-A6A7-C8C7223E7ECB}" name="Fecha" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{62F9A353-04B0-4C9D-8B74-BD5745F0A7DE}" name="Unidad"/>
+    <tableColumn id="13" xr3:uid="{E9E4361E-3EF7-4A8C-8690-EB209443E1FA}" name="Responsable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965422CC-3877-49E5-819B-617D040BD443}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +655,7 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -588,8 +680,11 @@
       <c r="H1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -614,8 +709,11 @@
       <c r="H2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -640,8 +738,11 @@
       <c r="H3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -666,8 +767,11 @@
       <c r="H4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -692,8 +796,11 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -718,8 +825,11 @@
       <c r="H6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -744,8 +854,11 @@
       <c r="H7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -770,8 +883,11 @@
       <c r="H8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -796,8 +912,11 @@
       <c r="H9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -822,8 +941,11 @@
       <c r="H10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -848,8 +970,11 @@
       <c r="H11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -874,8 +999,11 @@
       <c r="H12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -900,8 +1028,11 @@
       <c r="H13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -926,8 +1057,11 @@
       <c r="H14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -952,8 +1086,11 @@
       <c r="H15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -978,8 +1115,11 @@
       <c r="H16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1004,8 +1144,11 @@
       <c r="H17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1030,8 +1173,11 @@
       <c r="H18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1056,8 +1202,11 @@
       <c r="H19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1082,8 +1231,11 @@
       <c r="H20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1108,8 +1260,11 @@
       <c r="H21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1134,8 +1289,11 @@
       <c r="H22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1160,8 +1318,11 @@
       <c r="H23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1186,8 +1347,11 @@
       <c r="H24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1211,6 +1375,109 @@
       </c>
       <c r="H25" t="s">
         <v>39</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7B1E81-E050-4E06-95B8-59F1A7CC76CF}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44322</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
